--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755DB9A-02AE-FB47-BB40-77F8C32B65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A33501-70C0-D349-86AD-1E33037CEC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{2F6A880A-CADF-8941-BACA-B4A1F43DB678}"/>
   </bookViews>
   <sheets>
-    <sheet name="base-case" sheetId="1" r:id="rId1"/>
-    <sheet name="base-case-test" sheetId="3" r:id="rId2"/>
+    <sheet name="one-way-scenarios" sheetId="4" r:id="rId1"/>
+    <sheet name="base-case" sheetId="1" r:id="rId2"/>
+    <sheet name="base-case-test" sheetId="3" r:id="rId3"/>
+    <sheet name="policy_profile" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
   <si>
     <t>Scenario</t>
   </si>
@@ -79,13 +84,96 @@
   </si>
   <si>
     <t>NPIs + 10-day EWS p=0.3</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Base case</t>
+  </si>
+  <si>
+    <t>Epidemiological</t>
+  </si>
+  <si>
+    <t>0.5x transmissible</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>1.5x transmissible</t>
+  </si>
+  <si>
+    <t>0.5x deadly</t>
+  </si>
+  <si>
+    <t>1.5x deadly</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>cost_max_npi</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>1.5x NPI costs</t>
+  </si>
+  <si>
+    <t>0.5x NPI costs</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>NMB_comparator</t>
+  </si>
+  <si>
+    <t>3-day decision lag</t>
+  </si>
+  <si>
+    <t>1.5x stringent</t>
+  </si>
+  <si>
+    <t>0.5x stringent</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Policy response</t>
+  </si>
+  <si>
+    <t>90% max NPI eff</t>
+  </si>
+  <si>
+    <t>50% max NPI eff</t>
+  </si>
+  <si>
+    <t>2-week decision lag</t>
+  </si>
+  <si>
+    <t>counterfactual.id</t>
+  </si>
+  <si>
+    <t>Base-case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,13 +188,26 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,15 +219,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,6 +251,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="settings"/>
+      <sheetName val="parameters"/>
+      <sheetName val="healthcosts"/>
+      <sheetName val="jurisdiction"/>
+      <sheetName val="commuting_area"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="D6">
+            <v>1.2800000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>0.13700000000000001</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>0.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,11 +639,1022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D08609-CB1A-DE4B-9664-56E1F1BD1B3E}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>[1]parameters!$D$22</f>
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f>[1]parameters!$D$30</f>
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <f>[1]parameters!$D$24</f>
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <f>[1]parameters!$D$25</f>
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <f>[1]parameters!$D$32</f>
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <f>[1]parameters!$D$7</f>
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="4">
+        <f>[1]parameters!$D$6</f>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <f>[1]parameters!$D$10</f>
+        <v>0.25</v>
+      </c>
+      <c r="N2" s="3">
+        <f>[1]parameters!$D$21</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="G3">
+        <f>G$2</f>
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:N19" si="0">H$2</f>
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <f>F$2</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="7">
+        <f>G$2-2</f>
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <f>F$2</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
+        <f>G$2-5</f>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <f>F$2</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="7">
+        <f>G$2-10</f>
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>D5+1</f>
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F17" si="1">F$2</f>
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G19" si="2">G$2-5</f>
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>D7+1</f>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <f>K$2*0.5</f>
+        <v>1.25</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D19" si="3">D8+1</f>
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <f>K$2*1.5</f>
+        <v>3.75</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L10" s="10">
+        <f>L$2*0.5</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L11" s="10">
+        <f>L$2*1.5</f>
+        <v>1.9200000000000002E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M12" s="9">
+        <f>M$2*1.5</f>
+        <v>0.375</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M13" s="9">
+        <f>M$2*0.5</f>
+        <v>0.125</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N14" s="8">
+        <f>0.9/5</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N15" s="8">
+        <f>0.5/5</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="6">
+        <f>F17/1.5</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6">
+        <f>F17/0.5</f>
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E5F186-D7CF-8746-A7C8-0082BF7A0D1C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView zoomScale="191" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB0DF1-70C7-124B-9A2F-8427C9818EE3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -801,4 +1994,609 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032C89E-E4A5-B744-9378-57725A202560}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>[1]parameters!$D$22</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>[1]parameters!$D$24</f>
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <f>[1]parameters!$D$25</f>
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <f>[1]parameters!$D$32</f>
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="3">
+        <f>[1]parameters!$D$21</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G14" si="0">F$2</f>
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I12" si="1">I$2</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E16" si="2">E$2</f>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <f>0.9/5</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <f>0.5/5</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f>G$2</f>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <f>I$2</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <f>G$2</f>
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <f>I$2</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5">
+        <f>E16/1.5</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <f>G$2</f>
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <f>I$2</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
+        <f>E16/0.5</f>
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <f>G$2</f>
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <f>I$2</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A33501-70C0-D349-86AD-1E33037CEC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D37CC-2486-A540-9DAB-B81803089587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{2F6A880A-CADF-8941-BACA-B4A1F43DB678}"/>
   </bookViews>
@@ -1558,8 +1558,8 @@
         <v>31</v>
       </c>
       <c r="F18" s="6">
-        <f>F17/1.5</f>
-        <v>6.666666666666667</v>
+        <f>F17*0.5</f>
+        <v>5</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D37CC-2486-A540-9DAB-B81803089587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62184C44-B6F5-A04B-BBB8-FCB7E6C69D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{2F6A880A-CADF-8941-BACA-B4A1F43DB678}"/>
   </bookViews>
@@ -271,7 +271,7 @@
       <sheetData sheetId="1">
         <row r="6">
           <cell r="D6">
-            <v>1.2800000000000001E-2</v>
+            <v>7.3299999999999997E-3</v>
           </cell>
         </row>
         <row r="7">
@@ -286,12 +286,12 @@
         </row>
         <row r="21">
           <cell r="D21">
-            <v>0.13700000000000001</v>
+            <v>0.1188833</v>
           </cell>
         </row>
         <row r="22">
           <cell r="D22">
-            <v>10</v>
+            <v>12.5096989</v>
           </cell>
         </row>
         <row r="24">
@@ -642,7 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D08609-CB1A-DE4B-9664-56E1F1BD1B3E}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -714,9 +716,9 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <f>[1]parameters!$D$22</f>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G2">
         <f>[1]parameters!$D$30</f>
@@ -740,7 +742,7 @@
       </c>
       <c r="L2" s="4">
         <f>[1]parameters!$D$6</f>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M2" s="2">
         <f>[1]parameters!$D$10</f>
@@ -748,7 +750,7 @@
       </c>
       <c r="N2" s="3">
         <f>[1]parameters!$D$21</f>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -767,7 +769,7 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>10^5</f>
         <v>100000</v>
       </c>
@@ -792,7 +794,7 @@
       </c>
       <c r="L3" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="0"/>
@@ -800,7 +802,7 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -819,9 +821,9 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <f>F$2</f>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G4" s="7">
         <f>G$2-2</f>
@@ -844,7 +846,7 @@
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
@@ -852,7 +854,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -871,9 +873,9 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <f>F$2</f>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G5" s="7">
         <f>G$2-5</f>
@@ -896,7 +898,7 @@
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
@@ -904,7 +906,7 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -923,9 +925,9 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <f>F$2</f>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G6" s="7">
         <f>G$2-10</f>
@@ -948,7 +950,7 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
@@ -956,7 +958,7 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -976,9 +978,9 @@
       <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f t="shared" ref="F7:F17" si="1">F$2</f>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G19" si="2">G$2-5</f>
@@ -1001,7 +1003,7 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
@@ -1009,7 +1011,7 @@
       </c>
       <c r="N7" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1029,9 +1031,9 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -1054,7 +1056,7 @@
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
@@ -1062,7 +1064,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1082,9 +1084,9 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -1107,7 +1109,7 @@
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="0"/>
@@ -1115,7 +1117,7 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1135,9 +1137,9 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -1160,7 +1162,7 @@
       </c>
       <c r="L10" s="10">
         <f>L$2*0.5</f>
-        <v>6.4000000000000003E-3</v>
+        <v>3.6649999999999999E-3</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="0"/>
@@ -1168,7 +1170,7 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1188,9 +1190,9 @@
       <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -1213,7 +1215,7 @@
       </c>
       <c r="L11" s="10">
         <f>L$2*1.5</f>
-        <v>1.9200000000000002E-2</v>
+        <v>1.0995E-2</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="0"/>
@@ -1221,7 +1223,7 @@
       </c>
       <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1241,9 +1243,9 @@
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -1266,7 +1268,7 @@
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M12" s="9">
         <f>M$2*1.5</f>
@@ -1274,7 +1276,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1294,9 +1296,9 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -1319,7 +1321,7 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M13" s="9">
         <f>M$2*0.5</f>
@@ -1327,7 +1329,7 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1347,9 +1349,9 @@
       <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -1372,7 +1374,7 @@
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="0"/>
@@ -1400,9 +1402,9 @@
       <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -1425,7 +1427,7 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="0"/>
@@ -1453,9 +1455,9 @@
       <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -1477,7 +1479,7 @@
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="0"/>
@@ -1485,7 +1487,7 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1505,9 +1507,9 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -1529,7 +1531,7 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="0"/>
@@ -1537,7 +1539,7 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1559,7 +1561,7 @@
       </c>
       <c r="F18" s="6">
         <f>F17*0.5</f>
-        <v>5</v>
+        <v>6.25484945</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -1581,7 +1583,7 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="0"/>
@@ -1589,7 +1591,7 @@
       </c>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1610,8 +1612,8 @@
         <v>32</v>
       </c>
       <c r="F19" s="6">
-        <f>F17/0.5</f>
-        <v>20</v>
+        <f>F17*1.5</f>
+        <v>18.764548349999998</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -1633,7 +1635,7 @@
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>1.2800000000000001E-2</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="0"/>
@@ -1641,7 +1643,7 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="0"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2055,7 @@
       </c>
       <c r="E2">
         <f>[1]parameters!$D$22</f>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F2">
         <f>[1]parameters!$D$24</f>
@@ -2069,7 +2071,7 @@
       </c>
       <c r="I2" s="3">
         <f>[1]parameters!$D$21</f>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2102,7 +2104,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I12" si="1">I$2</f>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,7 +2122,7 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E16" si="2">E$2</f>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -2135,7 +2137,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2153,7 +2155,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2168,7 +2170,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2186,7 +2188,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2201,7 +2203,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2219,7 +2221,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -2234,7 +2236,7 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2252,7 +2254,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -2267,7 +2269,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2285,7 +2287,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -2300,7 +2302,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2318,7 +2320,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -2333,7 +2335,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2351,7 +2353,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -2366,7 +2368,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2384,7 +2386,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -2399,7 +2401,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="1"/>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2417,7 +2419,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -2450,7 +2452,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -2483,7 +2485,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2497,7 +2499,7 @@
       </c>
       <c r="I15" s="3">
         <f>I$2</f>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2515,7 +2517,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12.5096989</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -2529,7 +2531,7 @@
       </c>
       <c r="I16" s="3">
         <f>I$2</f>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2547,7 +2549,7 @@
       </c>
       <c r="E17" s="5">
         <f>E16/1.5</f>
-        <v>6.666666666666667</v>
+        <v>8.3397992666666667</v>
       </c>
       <c r="F17">
         <v>14</v>
@@ -2561,7 +2563,7 @@
       </c>
       <c r="I17" s="3">
         <f>I$2</f>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2579,7 +2581,7 @@
       </c>
       <c r="E18" s="5">
         <f>E16/0.5</f>
-        <v>20</v>
+        <v>25.0193978</v>
       </c>
       <c r="F18">
         <v>14</v>
@@ -2593,7 +2595,7 @@
       </c>
       <c r="I18" s="3">
         <f>I$2</f>
-        <v>0.13700000000000001</v>
+        <v>0.1188833</v>
       </c>
     </row>
   </sheetData>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62184C44-B6F5-A04B-BBB8-FCB7E6C69D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C92B07-E479-A54F-8B2B-EB6B3CF5E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{2F6A880A-CADF-8941-BACA-B4A1F43DB678}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C92B07-E479-A54F-8B2B-EB6B3CF5E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB854A84-F65C-5645-9B14-2B6ACE59A967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{2F6A880A-CADF-8941-BACA-B4A1F43DB678}"/>
   </bookViews>
@@ -286,12 +286,12 @@
         </row>
         <row r="21">
           <cell r="D21">
-            <v>0.1188833</v>
+            <v>0.1422919</v>
           </cell>
         </row>
         <row r="22">
           <cell r="D22">
-            <v>12.5096989</v>
+            <v>17.913607599999999</v>
           </cell>
         </row>
         <row r="24">
@@ -643,7 +643,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="F2" s="5">
         <f>[1]parameters!$D$22</f>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G2">
         <f>[1]parameters!$D$30</f>
@@ -750,7 +750,7 @@
       </c>
       <c r="N2" s="3">
         <f>[1]parameters!$D$21</f>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -802,7 +802,7 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
       </c>
       <c r="F4" s="5">
         <f>F$2</f>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G4" s="7">
         <f>G$2-2</f>
@@ -854,7 +854,7 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -875,7 +875,7 @@
       </c>
       <c r="F5" s="5">
         <f>F$2</f>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G5" s="7">
         <f>G$2-5</f>
@@ -906,7 +906,7 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
       </c>
       <c r="F6" s="5">
         <f>F$2</f>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G6" s="7">
         <f>G$2-10</f>
@@ -958,7 +958,7 @@
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -980,7 +980,7 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F17" si="1">F$2</f>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G19" si="2">G$2-5</f>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="N7" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F18" s="6">
         <f>F17*0.5</f>
-        <v>6.25484945</v>
+        <v>8.9568037999999994</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="N18" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F19" s="6">
         <f>F17*1.5</f>
-        <v>18.764548349999998</v>
+        <v>26.870411399999998</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="0"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="E2">
         <f>[1]parameters!$D$22</f>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F2">
         <f>[1]parameters!$D$24</f>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="I2" s="3">
         <f>[1]parameters!$D$21</f>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I12" si="1">I$2</f>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E16" si="2">E$2</f>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="1"/>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="I15" s="3">
         <f>I$2</f>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>12.5096989</v>
+        <v>17.913607599999999</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="I16" s="3">
         <f>I$2</f>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E17" s="5">
         <f>E16/1.5</f>
-        <v>8.3397992666666667</v>
+        <v>11.942405066666666</v>
       </c>
       <c r="F17">
         <v>14</v>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="I17" s="3">
         <f>I$2</f>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E18" s="5">
         <f>E16/0.5</f>
-        <v>25.0193978</v>
+        <v>35.827215199999998</v>
       </c>
       <c r="F18">
         <v>14</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I18" s="3">
         <f>I$2</f>
-        <v>0.1188833</v>
+        <v>0.1422919</v>
       </c>
     </row>
   </sheetData>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plima/dev/genomic-surveillance-voi/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB854A84-F65C-5645-9B14-2B6ACE59A967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB1CACD-C21E-0348-8641-790887F3344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{2F6A880A-CADF-8941-BACA-B4A1F43DB678}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="44">
   <si>
     <t>Scenario</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>Base-case</t>
+  </si>
+  <si>
+    <t>NPIs w/o ESS</t>
+  </si>
+  <si>
+    <t>NPIs + 2-day ESS</t>
+  </si>
+  <si>
+    <t>NPIs + 5-day ESS</t>
+  </si>
+  <si>
+    <t>NPIs + 10-day ESS</t>
   </si>
 </sst>
 </file>
@@ -643,7 +655,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F2" s="5">
         <f>[1]parameters!$D$22</f>
@@ -819,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5">
         <f>F$2</f>
@@ -871,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5">
         <f>F$2</f>
@@ -923,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5">
         <f>F$2</f>
